--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il13ra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Il13</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,40 +540,40 @@
         <v>0.352247</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7352585</v>
+        <v>0.0568385</v>
       </c>
       <c r="N2">
-        <v>1.470517</v>
+        <v>0.113677</v>
       </c>
       <c r="O2">
-        <v>0.1431143522522708</v>
+        <v>0.01274651757362603</v>
       </c>
       <c r="P2">
-        <v>0.1001890659257553</v>
+        <v>0.008533937711420974</v>
       </c>
       <c r="Q2">
-        <v>0.08633086694983333</v>
+        <v>0.006673730369833332</v>
       </c>
       <c r="R2">
-        <v>0.517985201699</v>
+        <v>0.040042382219</v>
       </c>
       <c r="S2">
-        <v>0.1431143522522708</v>
+        <v>0.00833733664063983</v>
       </c>
       <c r="T2">
-        <v>0.1001890659257553</v>
+        <v>0.006309446909108452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,10 +602,10 @@
         <v>0.352247</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +620,10 @@
         <v>13.206903</v>
       </c>
       <c r="O3">
-        <v>0.8568856477477294</v>
+        <v>0.9872534824263741</v>
       </c>
       <c r="P3">
-        <v>0.8998109340742446</v>
+        <v>0.9914660622885791</v>
       </c>
       <c r="Q3">
         <v>0.5168991067823333</v>
@@ -629,10 +632,134 @@
         <v>4.652091961041</v>
       </c>
       <c r="S3">
-        <v>0.8568856477477294</v>
+        <v>0.6457500713499718</v>
       </c>
       <c r="T3">
-        <v>0.8998109340742446</v>
+        <v>0.7330264988717607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.062095</v>
+      </c>
+      <c r="H4">
+        <v>0.12419</v>
+      </c>
+      <c r="I4">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J4">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.0568385</v>
+      </c>
+      <c r="N4">
+        <v>0.113677</v>
+      </c>
+      <c r="O4">
+        <v>0.01274651757362603</v>
+      </c>
+      <c r="P4">
+        <v>0.008533937711420974</v>
+      </c>
+      <c r="Q4">
+        <v>0.0035293866575</v>
+      </c>
+      <c r="R4">
+        <v>0.01411754663</v>
+      </c>
+      <c r="S4">
+        <v>0.004409180932986203</v>
+      </c>
+      <c r="T4">
+        <v>0.002224490802312522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.062095</v>
+      </c>
+      <c r="H5">
+        <v>0.12419</v>
+      </c>
+      <c r="I5">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J5">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.402301</v>
+      </c>
+      <c r="N5">
+        <v>13.206903</v>
+      </c>
+      <c r="O5">
+        <v>0.9872534824263741</v>
+      </c>
+      <c r="P5">
+        <v>0.9914660622885791</v>
+      </c>
+      <c r="Q5">
+        <v>0.273360880595</v>
+      </c>
+      <c r="R5">
+        <v>1.64016528357</v>
+      </c>
+      <c r="S5">
+        <v>0.3415034110764024</v>
+      </c>
+      <c r="T5">
+        <v>0.2584395634168182</v>
       </c>
     </row>
   </sheetData>
